--- a/interest.xlsx
+++ b/interest.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Simple Interest" sheetId="1" r:id="rId1"/>
+    <sheet name="Compound Interest" sheetId="1" r:id="rId1"/>
+    <sheet name="Simple Interest" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
   <si>
     <t>Time</t>
   </si>
@@ -31,16 +32,82 @@
     <t>Balance</t>
   </si>
   <si>
-    <t>Increase</t>
+    <t>Total Profit</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>70.0</t>
+  </si>
+  <si>
+    <t>1070.0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>74.9</t>
+  </si>
+  <si>
+    <t>1144.9</t>
+  </si>
+  <si>
+    <t>144.9</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>80.14</t>
+  </si>
+  <si>
+    <t>1225.04</t>
+  </si>
+  <si>
+    <t>225.04</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>85.75</t>
+  </si>
+  <si>
+    <t>1310.8</t>
+  </si>
+  <si>
+    <t>310.8</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>91.76</t>
+  </si>
+  <si>
+    <t>1402.55</t>
+  </si>
+  <si>
+    <t>402.55</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>7</t>
+    <t>98.18</t>
+  </si>
+  <si>
+    <t>1500.73</t>
+  </si>
+  <si>
+    <t>500.73</t>
   </si>
   <si>
     <t>350.0</t>
@@ -378,9 +445,145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -389,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -413,7 +616,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -421,15 +624,12 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
